--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_1_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_1_8.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_24</t>
+          <t>model_1_8_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9964457970468923</v>
+        <v>0.9999448267595067</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9955530776783147</v>
+        <v>0.9991271452469133</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9964739539826879</v>
+        <v>0.9999358630250899</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9953460674710694</v>
+        <v>0.9999842004368176</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9971170964185916</v>
+        <v>0.9999678627989774</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003317692445247363</v>
+        <v>5.150179817514658e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004151006789963136</v>
+        <v>0.0008147715981108883</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0027229371283651</v>
+        <v>5.119637103943964e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001612285848999239</v>
+        <v>8.806163555101318e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002167611488682169</v>
+        <v>3.000126729727048e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006754796283596019</v>
+        <v>0.0007685908174544133</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05759941358423159</v>
+        <v>0.007176475330909079</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9715663763751383</v>
+        <v>0.9995586140760535</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06005153986773581</v>
+        <v>0.007481992743097792</v>
       </c>
       <c r="P2" t="n">
-        <v>53.41697156864572</v>
+        <v>61.74778766976374</v>
       </c>
       <c r="Q2" t="n">
-        <v>79.01336389087793</v>
+        <v>87.34417999199594</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_23</t>
+          <t>model_1_8_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9963729274513164</v>
+        <v>0.9999437407870061</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9954823874434988</v>
+        <v>0.9991269031236133</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9963980330638313</v>
+        <v>0.9999349826094228</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9952475943208936</v>
+        <v>0.9999838426108036</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9970554224968116</v>
+        <v>0.9999673795727781</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003385713014111853</v>
+        <v>5.251550583575189e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00421699302122112</v>
+        <v>0.0008149976095834782</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002781565940286188</v>
+        <v>5.189914954161761e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001646400410297224</v>
+        <v>9.005604157755682e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002213983175291706</v>
+        <v>3.045237684968665e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006823969487402715</v>
+        <v>0.0007765577179039954</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05818688008573628</v>
+        <v>0.007246758298422261</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9709834196105316</v>
+        <v>0.9995499262960488</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06066401603443287</v>
+        <v>0.007555267802043809</v>
       </c>
       <c r="P3" t="n">
-        <v>53.37638151095042</v>
+        <v>61.70880416544257</v>
       </c>
       <c r="Q3" t="n">
-        <v>78.97277383318263</v>
+        <v>87.30519648767478</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_22</t>
+          <t>model_1_8_6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9962985189765602</v>
+        <v>0.9999415418890394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9954102013221214</v>
+        <v>0.999126578726071</v>
       </c>
       <c r="D4" t="n">
-        <v>0.996319692827502</v>
+        <v>0.9999332975111955</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9951479075682426</v>
+        <v>0.9999828449753927</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9969922265887142</v>
+        <v>0.9999663613197702</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00345517005914229</v>
+        <v>5.456808056724251e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004284375596922386</v>
+        <v>0.0008153004204497086</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002842063034509828</v>
+        <v>5.324425373781086e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001680935406159927</v>
+        <v>9.561653745742239e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002261499220334877</v>
+        <v>3.140295374177655e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006893905298841248</v>
+        <v>0.0007926663891813528</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05878069461262167</v>
+        <v>0.007387021088858655</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9703881518124815</v>
+        <v>0.9995323351123151</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0612831104750933</v>
+        <v>0.007701501869853084</v>
       </c>
       <c r="P4" t="n">
-        <v>53.33576720360769</v>
+        <v>61.63212290231421</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.93215952583989</v>
+        <v>87.22851522454641</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_21</t>
+          <t>model_1_8_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9962225702336883</v>
+        <v>0.9999425418465864</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9953364475256165</v>
+        <v>0.9991262186680985</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9962395872677992</v>
+        <v>0.9999338903054241</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9950461380594093</v>
+        <v>0.9999829139384153</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9969276443080961</v>
+        <v>0.9999666353457418</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003526064876848643</v>
+        <v>5.363466409013988e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00435322152854226</v>
+        <v>0.0008156365187623649</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002903923373720438</v>
+        <v>5.277106470261293e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001716191941988784</v>
+        <v>9.523215995908192e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002310057657854611</v>
+        <v>3.114714034926055e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006964528333507101</v>
+        <v>0.0007861209034473351</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05938067763884682</v>
+        <v>0.007323569081406953</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9697805618695066</v>
+        <v>0.999540334772691</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06190863602088094</v>
+        <v>0.0076353485790804</v>
       </c>
       <c r="P5" t="n">
-        <v>53.29514559123141</v>
+        <v>61.66662996163985</v>
       </c>
       <c r="Q5" t="n">
-        <v>78.89153791346362</v>
+        <v>87.26302228387206</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_20</t>
+          <t>model_1_8_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9961451675410065</v>
+        <v>0.9999282486076259</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9952612317720184</v>
+        <v>0.999126048886691</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9961585595450539</v>
+        <v>0.9999250219585387</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9949419367738194</v>
+        <v>0.999977909575702</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9968620282389761</v>
+        <v>0.9999613499136485</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00359831689288165</v>
+        <v>6.697677525913307e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004423432132936011</v>
+        <v>0.0008157950022537979</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002966495839764989</v>
+        <v>5.985008859309839e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001752290930781572</v>
+        <v>1.231248529618937e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00235939338527328</v>
+        <v>3.608128694464388e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007035767913081725</v>
+        <v>0.0008991477381774774</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0599859724675832</v>
+        <v>0.008183933972065823</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9691613403280517</v>
+        <v>0.9994259888610069</v>
       </c>
       <c r="O6" t="n">
-        <v>0.06253969950360966</v>
+        <v>0.008532340984335467</v>
       </c>
       <c r="P6" t="n">
-        <v>53.25457814520257</v>
+        <v>61.22232927317901</v>
       </c>
       <c r="Q6" t="n">
-        <v>78.85097046743476</v>
+        <v>86.81872159541122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_19</t>
+          <t>model_1_8_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9960662443043427</v>
+        <v>0.9999402075388553</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9951845063970923</v>
+        <v>0.9991256813753271</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9960759036195648</v>
+        <v>0.9999323506602937</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9948355998631057</v>
+        <v>0.9999808571580087</v>
       </c>
       <c r="F7" t="n">
-        <v>0.996795084033466</v>
+        <v>0.9999653630978306</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003671988269977538</v>
+        <v>5.5813637892874e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004495051902574767</v>
+        <v>0.0008161380579800568</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003030325661409103</v>
+        <v>5.400006316214455e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00178912977520064</v>
+        <v>1.06695986173226e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002409727718304871</v>
+        <v>3.233483088973357e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007107611158556844</v>
+        <v>0.0008046415575390628</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06059693284298751</v>
+        <v>0.007470852554620122</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9685299544347412</v>
+        <v>0.9995216603108421</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06317666972705725</v>
+        <v>0.007788902214667074</v>
       </c>
       <c r="P7" t="n">
-        <v>53.21404400135911</v>
+        <v>61.58698462351425</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.81043632359132</v>
+        <v>87.18337694574646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_18</t>
+          <t>model_1_8_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9959856463512864</v>
+        <v>0.9999295732278515</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9951061005093625</v>
+        <v>0.9991254795610379</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9959920973630337</v>
+        <v>0.9999259577493463</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9947256639068019</v>
+        <v>0.9999787418815458</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9967267199548354</v>
+        <v>0.9999619984584214</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003747222921314359</v>
+        <v>6.574030042265826e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00456824035714984</v>
+        <v>0.0008163264427603751</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003095043809265693</v>
+        <v>5.910310772175051e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001827215455545739</v>
+        <v>1.184858504124336e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002461129632405716</v>
+        <v>3.547584638149693e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007180240096208814</v>
+        <v>0.0008878711846712048</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06121456461753493</v>
+        <v>0.008108039246492229</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9678851708102911</v>
+        <v>0.9994365858228118</v>
       </c>
       <c r="O8" t="n">
-        <v>0.06382059536492118</v>
+        <v>0.008453215263170465</v>
       </c>
       <c r="P8" t="n">
-        <v>53.17348053532358</v>
+        <v>61.2595968397554</v>
       </c>
       <c r="Q8" t="n">
-        <v>78.76987285755578</v>
+        <v>86.85598916198761</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_17</t>
+          <t>model_1_8_4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9959034691982096</v>
+        <v>0.9999320381328206</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9950261514190814</v>
+        <v>0.9991249833620399</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9959060002385162</v>
+        <v>0.999927589517935</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9946144086251246</v>
+        <v>0.9999809914792547</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9966568754967222</v>
+        <v>0.9999633676528147</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003823931686551352</v>
+        <v>6.343941983073395e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.004642869323567823</v>
+        <v>0.0008167896227443811</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003161531046200033</v>
+        <v>5.780057310371728e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001865758196584583</v>
+        <v>1.059473231577526e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002513644621392308</v>
+        <v>3.419765270974628e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007253503736566108</v>
+        <v>0.0008676330478520011</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06183794697878765</v>
+        <v>0.007964886680344797</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9672277535856768</v>
+        <v>0.9994563050625649</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0644705164038718</v>
+        <v>0.008303968395915474</v>
       </c>
       <c r="P9" t="n">
-        <v>53.13295229669624</v>
+        <v>61.33085025168895</v>
       </c>
       <c r="Q9" t="n">
-        <v>78.72934461892845</v>
+        <v>86.92724257392115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_16</t>
+          <t>model_1_8_14</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9958195030295247</v>
+        <v>0.9999512622907049</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9949444242515568</v>
+        <v>0.999124943087924</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9958175819505301</v>
+        <v>0.9999373487535334</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9945009197680686</v>
+        <v>0.9999858885368902</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9965853244784879</v>
+        <v>0.9999690019356032</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00390231041932986</v>
+        <v>4.549451228882033e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004719158047043962</v>
+        <v>0.0008168272168637631</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003229810767452055</v>
+        <v>5.001041076050352e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001905074726661666</v>
+        <v>7.865271382029823e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00256744274705686</v>
+        <v>2.893784107126667e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007327625639453674</v>
+        <v>0.0007324759159567451</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06246847540423778</v>
+        <v>0.006744961993133862</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9665560242361977</v>
+        <v>0.9996100983256389</v>
       </c>
       <c r="O10" t="n">
-        <v>0.06512788772976713</v>
+        <v>0.007032108989177732</v>
       </c>
       <c r="P10" t="n">
-        <v>53.09237297208474</v>
+        <v>61.99583769663628</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.68876529431695</v>
+        <v>87.59223001886849</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_15</t>
+          <t>model_1_8_3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.995733845267864</v>
+        <v>0.9999306225548903</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9948610203245176</v>
+        <v>0.9991246280748985</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9957267379167718</v>
+        <v>0.9999262160367091</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9943859978928546</v>
+        <v>0.999980065887536</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9965121976242896</v>
+        <v>0.9999625041330241</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003982268179899009</v>
+        <v>6.476079969207375e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004797011951925808</v>
+        <v>0.0008171212676955976</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003299963735166098</v>
+        <v>5.889693373750173e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00194488770461014</v>
+        <v>1.111062708869602e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002622425719888119</v>
+        <v>3.500378041309887e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007402476196462433</v>
+        <v>0.0008787397319188635</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06310521515611059</v>
+        <v>0.008047409501949912</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9658707621429121</v>
+        <v>0.9994449804391223</v>
       </c>
       <c r="O11" t="n">
-        <v>0.06579173481111017</v>
+        <v>0.008390004384882108</v>
       </c>
       <c r="P11" t="n">
-        <v>53.05180745513395</v>
+        <v>61.28962016136292</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.64819977736616</v>
+        <v>86.88601248359512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_14</t>
+          <t>model_1_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9956465017010029</v>
+        <v>0.9999504784426783</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9947758192681806</v>
+        <v>0.9991244818397036</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9956342464681427</v>
+        <v>0.9999366313806521</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9942685197084176</v>
+        <v>0.9999856660154647</v>
       </c>
       <c r="F12" t="n">
-        <v>0.996437635851361</v>
+        <v>0.9999686288072455</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004063799565624331</v>
+        <v>4.622620001470759e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004876543398122221</v>
+        <v>0.0008172577718311337</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00337138889476191</v>
+        <v>5.058304282261189e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001985586277947124</v>
+        <v>7.989297600014027e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>0.002678487586354517</v>
+        <v>2.928617021131296e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007477942953289709</v>
+        <v>0.0007376767778102546</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06374793773624626</v>
+        <v>0.006798985219480007</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9651720136080231</v>
+        <v>0.9996038275414261</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06646181942210137</v>
+        <v>0.007088432096112927</v>
       </c>
       <c r="P12" t="n">
-        <v>53.01127377880881</v>
+        <v>61.96392764146302</v>
       </c>
       <c r="Q12" t="n">
-        <v>78.60766610104102</v>
+        <v>87.56031996369522</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_13</t>
+          <t>model_1_8_15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9955574380567834</v>
+        <v>0.999951734295789</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9946891094788366</v>
+        <v>0.999124448396545</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9955405302142942</v>
+        <v>0.9999376601582216</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9941491387801038</v>
+        <v>0.9999859185724951</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9963620067506344</v>
+        <v>0.9999691440376025</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00414693656806113</v>
+        <v>4.505391626141757e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.004957483180354983</v>
+        <v>0.0008172889895515848</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00344375989215735</v>
+        <v>4.976183667378384e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00202694402865886</v>
+        <v>7.84853051101395e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002735351960408105</v>
+        <v>2.880518359239889e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007554164920088774</v>
+        <v>0.0007296369687569285</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06439671240103123</v>
+        <v>0.00671222141033932</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9644595044542674</v>
+        <v>0.9996138743663119</v>
       </c>
       <c r="O13" t="n">
-        <v>0.06713821376751494</v>
+        <v>0.006997974571991276</v>
       </c>
       <c r="P13" t="n">
-        <v>52.97077078739335</v>
+        <v>62.01530129249447</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.56716310962555</v>
+        <v>87.61169361472668</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_12</t>
+          <t>model_1_8_16</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9954664337684046</v>
+        <v>0.999952443105836</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9946001421246388</v>
+        <v>0.9991237076370842</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9954451322809834</v>
+        <v>0.9999382392688151</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9940256474350634</v>
+        <v>0.9999859168324167</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9962845671033046</v>
+        <v>0.9999693911067603</v>
       </c>
       <c r="G14" t="n">
-        <v>0.004231885076636108</v>
+        <v>4.439227319569595e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.005040530300283225</v>
+        <v>0.0008179804559926298</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003517429541760923</v>
+        <v>4.929957039353831e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002069725772236942</v>
+        <v>7.849500374189e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002793577656998933</v>
+        <v>2.857453538386365e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007631205853134859</v>
+        <v>0.0007259690753887668</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06505294056870994</v>
+        <v>0.006662752674060171</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9637314701472368</v>
+        <v>0.9996195448466878</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0678223789268713</v>
+        <v>0.006946399849194322</v>
       </c>
       <c r="P14" t="n">
-        <v>52.93021548119837</v>
+        <v>62.04489026158907</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.52660780343058</v>
+        <v>87.64128258382128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_11</t>
+          <t>model_1_8_18</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9953736860040804</v>
+        <v>0.9999539391379153</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9945095757543445</v>
+        <v>0.999123422193581</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9953472873161922</v>
+        <v>0.9999393943691165</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9939005489439204</v>
+        <v>0.9999854760971134</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9962055005738841</v>
+        <v>0.9999697533793793</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004318461043476495</v>
+        <v>4.29957929179412e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.005125070031548665</v>
+        <v>0.0008182469049734558</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00359298887540131</v>
+        <v>4.837752903286977e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.002113064287728343</v>
+        <v>8.095151922958144e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002853026581564827</v>
+        <v>2.823634047791395e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.007708942536178468</v>
+        <v>0.0007176532020493247</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06571499861885789</v>
+        <v>0.006557117729455618</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9629894880326431</v>
+        <v>0.9996315131033224</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06851262215886315</v>
+        <v>0.006836267806303473</v>
       </c>
       <c r="P15" t="n">
-        <v>52.88971236026127</v>
+        <v>62.10881657234984</v>
       </c>
       <c r="Q15" t="n">
-        <v>78.48610468249348</v>
+        <v>87.70520889458204</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_10</t>
+          <t>model_1_8_19</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9952789801576488</v>
+        <v>0.9999547061138176</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9944170017187026</v>
+        <v>0.9991233537367167</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9952470899940367</v>
+        <v>0.9999399628450703</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9937726802144959</v>
+        <v>0.9999852587472476</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9961245878300274</v>
+        <v>0.9999699315370578</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004406864794014076</v>
+        <v>4.227985457940752e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.005211483830289879</v>
+        <v>0.0008183108064513495</v>
       </c>
       <c r="I16" t="n">
-        <v>0.003670364782386206</v>
+        <v>4.79237516930739e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.002157362511155303</v>
+        <v>8.216295681478058e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002913863646770755</v>
+        <v>2.807002368727598e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.007787492798697889</v>
+        <v>0.0007128551219877688</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06638422097165919</v>
+        <v>0.006502296100563825</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9622318412611905</v>
+        <v>0.9996376489105412</v>
       </c>
       <c r="O16" t="n">
-        <v>0.06921033469270445</v>
+        <v>0.00677911230717334</v>
       </c>
       <c r="P16" t="n">
-        <v>52.84918354683455</v>
+        <v>62.14239967286689</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.44557586906676</v>
+        <v>87.73879199509909</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_9</t>
+          <t>model_1_8_17</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9951823263977583</v>
+        <v>0.9999530805966012</v>
       </c>
       <c r="C17" t="n">
-        <v>0.994322557207164</v>
+        <v>0.9991229970772555</v>
       </c>
       <c r="D17" t="n">
-        <v>0.995144829245366</v>
+        <v>0.9999385921169963</v>
       </c>
       <c r="E17" t="n">
-        <v>0.993642048756985</v>
+        <v>0.9999855279121316</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9960419789774284</v>
+        <v>0.9999694258585626</v>
       </c>
       <c r="G17" t="n">
-        <v>0.004497086836262201</v>
+        <v>4.379720354906503e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.005299643636176214</v>
+        <v>0.0008186437324028728</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003749334140120852</v>
+        <v>4.901791466479768e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.002202617840722259</v>
+        <v>8.066271914104816e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002975975990421556</v>
+        <v>2.854209328945125e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.007866859327931647</v>
+        <v>0.0007231997969405507</v>
       </c>
       <c r="M17" t="n">
-        <v>0.06706032236920877</v>
+        <v>0.006617945568608511</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9614586111820662</v>
+        <v>0.9996246447728092</v>
       </c>
       <c r="O17" t="n">
-        <v>0.06991521912647054</v>
+        <v>0.00689968521250009</v>
       </c>
       <c r="P17" t="n">
-        <v>52.80865092311926</v>
+        <v>62.07188117706374</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.40504324535146</v>
+        <v>87.66827349929594</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_8</t>
+          <t>model_1_8_12</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9950838571800956</v>
+        <v>0.999949517527661</v>
       </c>
       <c r="C18" t="n">
-        <v>0.994226224524679</v>
+        <v>0.9991226805773736</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9950416418289317</v>
+        <v>0.9999361406711605</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9935090476066792</v>
+        <v>0.9999834326332934</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9959583483257717</v>
+        <v>0.9999677522934654</v>
       </c>
       <c r="G18" t="n">
-        <v>0.004589003528651239</v>
+        <v>4.712317200395323e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.005389565966759921</v>
+        <v>0.0008189391711497993</v>
       </c>
       <c r="I18" t="n">
-        <v>0.003829019103394002</v>
+        <v>5.097474425909521e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.002248694115185982</v>
+        <v>9.234112311314711e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>0.003038856609289992</v>
+        <v>3.010442828520496e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.007946823294965733</v>
+        <v>0.0007428899151334323</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06774218426247591</v>
+        <v>0.006864631964202686</v>
       </c>
       <c r="N18" t="n">
-        <v>0.960670857440765</v>
+        <v>0.9995961402212883</v>
       </c>
       <c r="O18" t="n">
-        <v>0.07062610929218278</v>
+        <v>0.007156873558665947</v>
       </c>
       <c r="P18" t="n">
-        <v>52.76818474926576</v>
+        <v>61.92549140663101</v>
       </c>
       <c r="Q18" t="n">
-        <v>78.36457707149796</v>
+        <v>87.52188372886322</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_7</t>
+          <t>model_1_8_10</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9949833666722387</v>
+        <v>0.9999476669905997</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9941279036403983</v>
+        <v>0.9991224969419784</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9949354246936868</v>
+        <v>0.9999345535143597</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9933732101395459</v>
+        <v>0.9999831811440362</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9958725083892257</v>
+        <v>0.9999669986565825</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004682807006712077</v>
+        <v>4.885056712163349e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.005481344196447975</v>
+        <v>0.0008191105867306215</v>
       </c>
       <c r="I19" t="n">
-        <v>0.003911043722416777</v>
+        <v>5.22416681916262e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.002295752989516751</v>
+        <v>9.374284258209397e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>0.003103398355966764</v>
+        <v>3.08079762249178e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.008027604959138389</v>
+        <v>0.0007534252993971334</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06843103832846668</v>
+        <v>0.006989318072718789</v>
       </c>
       <c r="N19" t="n">
-        <v>0.95986693337791</v>
+        <v>0.9995813359247974</v>
       </c>
       <c r="O19" t="n">
-        <v>0.07134428930188728</v>
+        <v>0.007286867812957407</v>
       </c>
       <c r="P19" t="n">
-        <v>52.72771512218876</v>
+        <v>61.8534891401857</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.32410744442096</v>
+        <v>87.44988146241791</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_6</t>
+          <t>model_1_8_20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9948808673984254</v>
+        <v>0.9999561341850109</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9940276713481146</v>
+        <v>0.9991223589422937</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9948280963673498</v>
+        <v>0.9999412285290462</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9932336572248678</v>
+        <v>0.9999845912613076</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9957852418627863</v>
+        <v>0.9999702733971519</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004778485579618738</v>
+        <v>4.094681280552299e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.005574906641605548</v>
+        <v>0.0008192394033787513</v>
       </c>
       <c r="I20" t="n">
-        <v>0.003993926442402167</v>
+        <v>4.691343858514887e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.002344099025503204</v>
+        <v>8.588330673273168e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>0.003169012733952686</v>
+        <v>2.775088462921102e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.008109220793669434</v>
+        <v>0.0007053888953008952</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06912659097350844</v>
+        <v>0.00639896966749515</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9590469391874032</v>
+        <v>0.9996490734800876</v>
       </c>
       <c r="O20" t="n">
-        <v>0.07206945306302093</v>
+        <v>0.006671387053933729</v>
       </c>
       <c r="P20" t="n">
-        <v>52.68726321405151</v>
+        <v>62.20647316412234</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.28365553628372</v>
+        <v>87.80286548635455</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_5</t>
+          <t>model_1_8_11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9947759996303759</v>
+        <v>0.9999485440758117</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9939249169205656</v>
+        <v>0.9991223092134621</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9947141149511414</v>
+        <v>0.9999352754338166</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9930929603739698</v>
+        <v>0.9999829440918326</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9956942952179537</v>
+        <v>0.9999672365347168</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004876375037929988</v>
+        <v>4.803184657578762e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.005670823389324585</v>
+        <v>0.000819285823060224</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00408194691309759</v>
+        <v>5.16654068942428e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.002392841361214221</v>
+        <v>9.506409460065804e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>0.003237394137155905</v>
+        <v>3.05859081771543e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.008191870796071078</v>
+        <v>0.0007486635965999898</v>
       </c>
       <c r="M21" t="n">
-        <v>0.06983104637573453</v>
+        <v>0.006930501177821675</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9582079970430071</v>
+        <v>0.9995883526064935</v>
       </c>
       <c r="O21" t="n">
-        <v>0.07280389859014351</v>
+        <v>0.007225546961076765</v>
       </c>
       <c r="P21" t="n">
-        <v>52.64670631048189</v>
+        <v>61.88729259345322</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.24309863271409</v>
+        <v>87.48368491568543</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_4</t>
+          <t>model_1_8_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9946694626970418</v>
+        <v>0.999956898768426</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9938204134616115</v>
+        <v>0.9991222226470615</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9946022737928649</v>
+        <v>0.9999418375038527</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9929490338799387</v>
+        <v>0.9999842636427979</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9956037036279954</v>
+        <v>0.9999704359515047</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004975822588766358</v>
+        <v>4.023310774892082e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.005768372781086486</v>
+        <v>0.0008193666289953807</v>
       </c>
       <c r="I22" t="n">
-        <v>0.004168314601112716</v>
+        <v>4.642733364821888e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.002442702558852964</v>
+        <v>8.770934593787778e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00330550857998284</v>
+        <v>2.759913412100333e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.008274861558470077</v>
+        <v>0.0007002748224111413</v>
       </c>
       <c r="M22" t="n">
-        <v>0.07053951083447034</v>
+        <v>0.006342957334628763</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9573557015763345</v>
+        <v>0.9996551901474078</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0735425238476113</v>
+        <v>0.006612990160095706</v>
       </c>
       <c r="P22" t="n">
-        <v>52.60632915512765</v>
+        <v>62.24164065089599</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.20272147735984</v>
+        <v>87.83803297312819</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_3</t>
+          <t>model_1_8_0</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9945606227839355</v>
+        <v>0.9999270236777675</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9937135489575899</v>
+        <v>0.9991221453832035</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9944871798521742</v>
+        <v>0.9999234677740785</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9928016294833713</v>
+        <v>0.999973741054717</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9955106403955294</v>
+        <v>0.999959441043196</v>
       </c>
       <c r="G23" t="n">
-        <v>0.005077419870131088</v>
+        <v>6.812019351369792e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.005868126104781114</v>
+        <v>0.0008194387514152517</v>
       </c>
       <c r="I23" t="n">
-        <v>0.004257194202461705</v>
+        <v>6.109069285298863e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.002493768624204934</v>
+        <v>1.46358835543083e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00337548141333332</v>
+        <v>3.786328820364847e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.008358817364363006</v>
+        <v>0.0009082998570489101</v>
       </c>
       <c r="M23" t="n">
-        <v>0.07125601637848616</v>
+        <v>0.008253495835929036</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9564849822714843</v>
+        <v>0.9994161894221403</v>
       </c>
       <c r="O23" t="n">
-        <v>0.07428953251600683</v>
+        <v>0.008604864240756245</v>
       </c>
       <c r="P23" t="n">
-        <v>52.56590409199384</v>
+        <v>61.18847372279456</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.16229641422605</v>
+        <v>86.78486604502677</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_2</t>
+          <t>model_1_8_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9944494521416231</v>
+        <v>0.9999575847452132</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9936041148148937</v>
+        <v>0.9991218772034803</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9943694162127006</v>
+        <v>0.9999423726199909</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9926498794424788</v>
+        <v>0.9999838812566952</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9954152050447646</v>
+        <v>0.999970550579401</v>
       </c>
       <c r="G24" t="n">
-        <v>0.005181192784902601</v>
+        <v>3.959277852893625e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.005970278073384307</v>
+        <v>0.0008196890854151764</v>
       </c>
       <c r="I24" t="n">
-        <v>0.004348135439393858</v>
+        <v>4.600018527711194e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.002546340173533373</v>
+        <v>8.984064192540539e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>0.003447237806463616</v>
+        <v>2.749212473482624e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.008443631537753106</v>
+        <v>0.0006960745116346229</v>
       </c>
       <c r="M24" t="n">
-        <v>0.07198050281084872</v>
+        <v>0.006292279279318127</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9555956171329845</v>
+        <v>0.9996606779617059</v>
       </c>
       <c r="O24" t="n">
-        <v>0.07504486183568872</v>
+        <v>0.006560154635052459</v>
       </c>
       <c r="P24" t="n">
-        <v>52.52543996372498</v>
+        <v>62.27372763342782</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.12183228595718</v>
+        <v>87.87011995566003</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_1</t>
+          <t>model_1_8_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9943363062126194</v>
+        <v>0.9999587611755704</v>
       </c>
       <c r="C25" t="n">
-        <v>0.993493198009694</v>
+        <v>0.9991210737838647</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9942501748317036</v>
+        <v>0.9999431355732226</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9924971509073792</v>
+        <v>0.9999827662283888</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9953187854016857</v>
+        <v>0.9999705439033464</v>
       </c>
       <c r="G25" t="n">
-        <v>0.005286809543095194</v>
+        <v>3.849463242983792e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.006073814042353137</v>
+        <v>0.0008204390423602657</v>
       </c>
       <c r="I25" t="n">
-        <v>0.004440217840462867</v>
+        <v>4.5391169389006e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.002599250707656654</v>
+        <v>9.605544769022265e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00351973427405976</v>
+        <v>2.749835707901414e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.008529156096694935</v>
+        <v>0.0006898323065979209</v>
       </c>
       <c r="M25" t="n">
-        <v>0.07271045002676846</v>
+        <v>0.006204404276789023</v>
       </c>
       <c r="N25" t="n">
-        <v>0.954690449700955</v>
+        <v>0.9996700894045629</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0758058844157892</v>
+        <v>0.00646853861173936</v>
       </c>
       <c r="P25" t="n">
-        <v>52.48508065200517</v>
+        <v>62.32998348759371</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.08147297423737</v>
+        <v>87.92637580982591</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_0</t>
+          <t>model_1_8_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9942208395258632</v>
+        <v>0.9999590101661795</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9933797497333933</v>
+        <v>0.9991188782222203</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9941275822789106</v>
+        <v>0.9999425819470967</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9923408715887099</v>
+        <v>0.999980901766099</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9952198267997369</v>
+        <v>0.9999697506223176</v>
       </c>
       <c r="G26" t="n">
-        <v>0.005394592626780399</v>
+        <v>3.826221062570127e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.006179713028476067</v>
+        <v>0.0008224885027813358</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00453488813461735</v>
+        <v>4.58330930780271e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.002653391358045435</v>
+        <v>1.064473551607747e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.003594139746331392</v>
+        <v>2.823891429705228e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.008615483240246439</v>
+        <v>0.0006899257652704705</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07344789055364626</v>
+        <v>0.00618564553023379</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9537667162069052</v>
+        <v>0.999672081329436</v>
       </c>
       <c r="O26" t="n">
-        <v>0.07657471931260852</v>
+        <v>0.006448981266507311</v>
       </c>
       <c r="P26" t="n">
-        <v>52.44471638504848</v>
+        <v>62.34209563318192</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.04110870728069</v>
+        <v>87.93848795541413</v>
       </c>
     </row>
   </sheetData>
